--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFA967-FCFD-4E74-ABDB-290437529CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDA197-46DE-47B7-8334-4D57518093E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Lộc</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Khang</t>
+  </si>
+  <si>
+    <t>CR1</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +454,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDA197-46DE-47B7-8334-4D57518093E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3344ABB9-950A-4377-9F6D-E121AE1906FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-11 tháng 3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Lộc</t>
   </si>
@@ -40,6 +51,9 @@
   </si>
   <si>
     <t>CR1</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -62,7 +76,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,8 +89,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -136,18 +174,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,130 +547,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B2" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="16">
+        <f>SUM(B2:B17)</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="16">
+        <f>SUM(D2:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16">
+        <f>SUM(F2:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="16">
+        <f>SUM(H2:H17)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3344ABB9-950A-4377-9F6D-E121AE1906FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC17758-326B-41A1-8A1A-3E62040D1DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Lộc</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>TR2</t>
   </si>
 </sst>
 </file>
@@ -230,6 +233,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -251,22 +267,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +553,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,213 +569,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="5">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="14"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="8">
         <f>SUM(B2:B17)</f>
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="D18" s="8">
         <f>SUM(D2:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="8">
         <f>SUM(F2:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="8">
         <f>SUM(H2:H17)</f>
         <v>0</v>
       </c>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC17758-326B-41A1-8A1A-3E62040D1DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2756F6-F6D7-4D91-8BE0-B05C90D801AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Lộc</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>TR2</t>
+  </si>
+  <si>
+    <t>CG1</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,8 +618,12 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -760,7 +767,7 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B2:B17)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2756F6-F6D7-4D91-8BE0-B05C90D801AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE7DA5-71D7-4036-A509-8A34B89A45DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Lộc</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>CG1</t>
+  </si>
+  <si>
+    <t>PR1</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,8 +635,12 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -767,7 +774,7 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B2:B17)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE7DA5-71D7-4036-A509-8A34B89A45DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E37EB-1EA6-4B36-B84C-163B5B0B6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Lộc</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>PR1</t>
+  </si>
+  <si>
+    <t>CR4</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,8 +602,12 @@
       <c r="B2" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
@@ -781,7 +788,7 @@
       </c>
       <c r="D18" s="8">
         <f>SUM(D2:D17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>5</v>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E37EB-1EA6-4B36-B84C-163B5B0B6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCA135F-37B4-4B2E-9B26-2793AE8B96AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Lộc</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>CR4</t>
+  </si>
+  <si>
+    <t>PR2</t>
   </si>
 </sst>
 </file>
@@ -620,8 +623,12 @@
       <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
       <c r="G3" s="2"/>
@@ -788,7 +795,7 @@
       </c>
       <c r="D18" s="8">
         <f>SUM(D2:D17)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>5</v>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCA135F-37B4-4B2E-9B26-2793AE8B96AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B259D0D-B1CE-4F86-9652-51D99F836E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Lộc</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>PR2</t>
+  </si>
+  <si>
+    <t>TR4</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,8 +666,12 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -788,7 +795,7 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B2:B17)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B259D0D-B1CE-4F86-9652-51D99F836E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE32842-BCCD-45C0-B802-7CE59A25C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE32842-BCCD-45C0-B802-7CE59A25C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA982BE-E3E0-41D5-BC1D-FA30CBFBA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA982BE-E3E0-41D5-BC1D-FA30CBFBA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08FB2F9-EA4E-43FE-98D9-9662B38A4C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Lộc</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>TR4</t>
+  </si>
+  <si>
+    <t>PR3</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,8 +619,12 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -816,7 +823,7 @@
       </c>
       <c r="H18" s="8">
         <f>SUM(H2:H17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08FB2F9-EA4E-43FE-98D9-9662B38A4C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DB434-4E8A-4928-9FE1-1EE97E98F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DB434-4E8A-4928-9FE1-1EE97E98F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D08917-717E-4FDF-A662-96DF6A1E7D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D08917-717E-4FDF-A662-96DF6A1E7D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD117CB-ADC8-451B-82B5-881728789407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="5-11 tháng 3" sheetId="1" r:id="rId1"/>
+    <sheet name="11-17 tháng 3" sheetId="2" r:id="rId1"/>
+    <sheet name="4-10 tháng 3" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Lộc</t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>PR3</t>
+  </si>
+  <si>
+    <t>TR5</t>
   </si>
 </sst>
 </file>
@@ -243,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -288,6 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA287BCE-33B2-4487-BC5A-2D0267491B91}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,17 +610,17 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
         <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="5"/>
@@ -627,17 +632,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
@@ -645,26 +646,17 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -673,12 +665,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="18"/>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -802,7 +789,7 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B2:B17)</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>
@@ -824,6 +811,265 @@
       <c r="H18" s="8">
         <f>SUM(H2:H17)</f>
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8">
+        <f>SUM(B2:B17)</f>
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8">
+        <f>SUM(D2:D17)</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8">
+        <f>SUM(F2:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD117CB-ADC8-451B-82B5-881728789407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D5146-21DA-4AA9-914E-B5E9B624105B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Lộc</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>TR5</t>
+  </si>
+  <si>
+    <t>PR4</t>
   </si>
 </sst>
 </file>
@@ -268,6 +271,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,7 +296,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +579,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,22 +595,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -632,8 +635,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -665,7 +672,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -789,7 +796,7 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B2:B17)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>
@@ -845,22 +852,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D5146-21DA-4AA9-914E-B5E9B624105B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D912906D-134B-42CC-9AB7-5B4AEC77A783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-17 tháng 3" sheetId="2" r:id="rId1"/>
     <sheet name="4-10 tháng 3" sheetId="1" r:id="rId2"/>
+    <sheet name="Tổng" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Lộc</t>
   </si>
@@ -54,9 +77,6 @@
     <t>CR1</t>
   </si>
   <si>
-    <t>Tổng</t>
-  </si>
-  <si>
     <t>TR2</t>
   </si>
   <si>
@@ -82,13 +102,28 @@
   </si>
   <si>
     <t>PR4</t>
+  </si>
+  <si>
+    <t>4-10 tháng 3</t>
+  </si>
+  <si>
+    <t>Khải</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>11-17 tháng 3</t>
+  </si>
+  <si>
+    <t>Tuần</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +138,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,12 +188,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -233,67 +290,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,516 +608,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA287BCE-33B2-4487-BC5A-2D0267491B91}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8">
-        <f>SUM(B2:B17)</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8">
-        <f>SUM(D2:D17)</f>
-        <v>9</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8">
-        <f>SUM(F2:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="8">
-        <f>SUM(H2:H17)</f>
-        <v>4</v>
-      </c>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603100F5-DB9A-4E78-B229-8D3855C72AFE}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!A:A"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!A:A"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!A:A"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!A:A"),2)="PR",4,0)))))</f>
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!B:B"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!B:B"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!B:B"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!B:B"),2)="PR",4,0)))))</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!C:C"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!C:C"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!C:C"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!C:C"),2)="PR",4,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="PR",4,0)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="PR",4,0)))))</f>
         <v>9</v>
       </c>
-      <c r="D2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="C3" s="9" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="PR",4,0)))))</f>
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="PR",4,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="PR",4,0)))))</f>
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8">
-        <f>SUM(B2:B17)</f>
-        <v>18</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8">
-        <f>SUM(D2:D17)</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8">
-        <f>SUM(F2:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="8">
-        <f>SUM(H2:H17)</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D912906D-134B-42CC-9AB7-5B4AEC77A783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A09C26-03FF-48E9-8292-768EC7831740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-17 tháng 3" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Lộc</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Tuần</t>
+  </si>
+  <si>
+    <t>TR8</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA287BCE-33B2-4487-BC5A-2D0267491B91}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +658,9 @@
         <v>12</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -890,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603100F5-DB9A-4E78-B229-8D3855C72AFE}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -955,7 +960,7 @@
       </c>
       <c r="E3" s="9" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="PR",4,0)))))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A09C26-03FF-48E9-8292-768EC7831740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4D4F7-C433-4A13-94A1-AA1EF36E0258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-17 tháng 3" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Lộc</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>TR8</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Lộc: 77, Khải: 5</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +207,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -297,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -330,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA287BCE-33B2-4487-BC5A-2D0267491B91}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -893,18 +908,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603100F5-DB9A-4E78-B229-8D3855C72AFE}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -920,8 +936,11 @@
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -941,8 +960,11 @@
         <f t="array" aca="1" ref="E2" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A2&amp;"'!D:D"),2)="PR",4,0)))))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -963,21 +985,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4D4F7-C433-4A13-94A1-AA1EF36E0258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5606410D-5094-4230-B1F0-803D56D800A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-17 tháng 3" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Lộc</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Lộc: 77, Khải: 5</t>
+  </si>
+  <si>
+    <t>CR3</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA287BCE-33B2-4487-BC5A-2D0267491B91}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +681,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -910,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603100F5-DB9A-4E78-B229-8D3855C72AFE}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +975,7 @@
       </c>
       <c r="B3" s="9" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="PR",4,0)))))</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="PR",4,0)))))</f>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5606410D-5094-4230-B1F0-803D56D800A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4BB73-E7FF-43E9-BDA3-9ACE19D52485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Lộc</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>CR3</t>
+  </si>
+  <si>
+    <t>TR10</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +692,9 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -975,7 +980,7 @@
       </c>
       <c r="B3" s="9" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!A:A"),2)="PR",4,0)))))</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!B:B"),2)="PR",4,0)))))</f>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4BB73-E7FF-43E9-BDA3-9ACE19D52485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41417E6-704A-4F26-87FE-1DDA9CA96674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Lộc</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>TR10</t>
+  </si>
+  <si>
+    <t>CR7</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +669,9 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,7 +926,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +993,7 @@
       </c>
       <c r="D3" s="9" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="PR",4,0)))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="9" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="PR",4,0)))))</f>

--- a/UsedPrompts.xlsx
+++ b/UsedPrompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\RaNgoaiLamChu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41417E6-704A-4F26-87FE-1DDA9CA96674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A5321D-C943-459C-8D14-648F76223B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="1596" windowWidth="15900" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Lộc</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>CR7</t>
+  </si>
+  <si>
+    <t>PR5</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +686,9 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
@@ -993,7 +998,7 @@
       </c>
       <c r="D3" s="9" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!C:C"),2)="PR",4,0)))))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">SUM(IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="TR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CR",5,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="CG",4,IF(LEFT(INDIRECT("'"&amp;A3&amp;"'!D:D"),2)="PR",4,0)))))</f>
